--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -55,19 +55,10 @@
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
-    <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
-  </si>
-  <si>
     <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
   </si>
   <si>
-    <t>87250510</t>
-  </si>
-  <si>
     <t>5201219486417</t>
-  </si>
-  <si>
-    <t>Royal Dutch</t>
   </si>
   <si>
     <t>Παπαγάλος</t>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,81 +509,46 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>43998</v>
+        <v>43988</v>
       </c>
       <c r="D2" s="4">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2">
-        <v>0.85</v>
+        <v>2.95</v>
       </c>
       <c r="H2" s="2">
-        <v>0.59</v>
+        <v>2.29</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2">
-        <v>1.99</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44012</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2.29</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2">
-        <v>6.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="K4" s="5">
-        <v>6</v>
-      </c>
-      <c r="L4" s="5">
-        <v>8.08</v>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>10.15</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I3">
+  <conditionalFormatting sqref="I1:I2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -604,7 +560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J3">
+  <conditionalFormatting sqref="J1:J2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
